--- a/lab2/tablo time.xlsx
+++ b/lab2/tablo time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\n\algollabs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12A0691F-83C4-4947-809D-F829C901220E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE062E8D-ECAC-4387-A578-1301287119EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -125,14 +125,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="ru-RU"/>
-              <a:t>Зависимость</a:t>
+              <a:rPr lang="ru-RU" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Зависимость времени от размера данных</a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="ru-RU" baseline="0"/>
-              <a:t> времени от размера данных</a:t>
-            </a:r>
-            <a:endParaRPr lang="ru-RU"/>
+            <a:endParaRPr lang="ru-RU">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -169,7 +169,7 @@
     <c:plotArea>
       <c:layout/>
       <c:lineChart>
-        <c:grouping val="standard"/>
+        <c:grouping val="stacked"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
@@ -186,6 +186,36 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.635986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8238.2197269999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
           <c:val>
             <c:numRef>
               <c:f>Лист1!$A$2:$A$8</c:f>
@@ -219,7 +249,97 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-512D-4B4D-8EC8-7559DE62DCE5}"/>
+              <c16:uniqueId val="{00000000-8BCE-45E9-8F08-C0503016C973}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0.005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.635986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8238.219727</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.635986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8238.2197269999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numLit>
+              <c:formatCode>General</c:formatCode>
+              <c:ptCount val="1"/>
+              <c:pt idx="0">
+                <c:v>1</c:v>
+              </c:pt>
+            </c:numLit>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-8BCE-45E9-8F08-C0503016C973}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -232,20 +352,54 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="115578335"/>
-        <c:axId val="115584575"/>
+        <c:axId val="712831071"/>
+        <c:axId val="712841471"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="115578335"/>
+        <c:axId val="712831071"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="1"/>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="115584575"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="712841471"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -253,9 +407,10 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="115584575"/>
+        <c:axId val="712841471"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:max val="10000"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
@@ -304,7 +459,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="115578335"/>
+        <c:crossAx val="712831071"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -920,10 +1075,10 @@
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Диаграмма 3">
+        <xdr:cNvPr id="2" name="Диаграмма 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B6E1A30E-9694-43D9-B389-D1F7C1DE0840}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F11D559-7E70-428D-B67C-BF9BD3E63BA8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1210,7 +1365,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="O17" sqref="O17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/lab2/tablo time.xlsx
+++ b/lab2/tablo time.xlsx
@@ -8,24 +8,33 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\n\algollabs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE062E8D-ECAC-4387-A578-1301287119EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099BB6A-4CE0-43AF-9D81-7432CED34969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>размер</t>
   </si>
@@ -34,6 +43,9 @@
   </si>
   <si>
     <t>время (такты)</t>
+  </si>
+  <si>
+    <t>теор слож</t>
   </si>
 </sst>
 </file>
@@ -262,25 +274,25 @@
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>0.005</c:v>
+                  <c:v>0,005</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.039</c:v>
+                  <c:v>0,039</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.332</c:v>
+                  <c:v>0,332</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.256</c:v>
+                  <c:v>6,256</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>59.742</c:v>
+                  <c:v>59,742</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>523.635986</c:v>
+                  <c:v>523,635986</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>8238.219727</c:v>
+                  <c:v>8238,219727</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -515,7 +527,694 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Сравнение</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-42A0-4584-9763-FCACDE608DE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>0,005</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0,039</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0,332</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6,256</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59,742</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523,635986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8238,219727</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$B$2:$B$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>5.0000000000000001E-3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.9E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.33200000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.2560000000000002</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>59.741999999999997</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>523.635986</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8238.2197269999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-42A0-4584-9763-FCACDE608DE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$C$2:$C$8</c:f>
+              <c:strCache>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1E+12</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent3"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Лист1!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>200</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>10000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Лист1!$C$2:$C$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>1000000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8000000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>64000000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1000000000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8000000000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64000000000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1000000000000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-42A0-4584-9763-FCACDE608DE9}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1792418816"/>
+        <c:axId val="1792409248"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1792418816"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792409248"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1792409248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1792418816"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1058,17 +1757,520 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
+      <xdr:col>3</xdr:col>
       <xdr:colOff>68580</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>11</xdr:col>
+      <xdr:col>10</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>179070</xdr:rowOff>
@@ -1091,6 +2293,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>64770</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Диаграмма 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7A3357E-7C36-41DE-9285-4D1349796F62}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1362,18 +2600,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O17" sqref="O17"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="17.6640625" customWidth="1"/>
+    <col min="3" max="3" width="11.5546875" customWidth="1"/>
+    <col min="4" max="4" width="15.77734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1381,83 +2620,114 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>100</v>
       </c>
       <c r="B2" s="1">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <f>A2^3</f>
+        <v>1000000</v>
+      </c>
+      <c r="D2" s="1">
         <v>2298</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>200</v>
       </c>
       <c r="B3" s="1">
         <v>3.9E-2</v>
       </c>
-      <c r="C3" s="1">
+      <c r="C3">
+        <f t="shared" ref="C3:C8" si="0">A3^3</f>
+        <v>8000000</v>
+      </c>
+      <c r="D3" s="1">
         <v>3536</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>400</v>
       </c>
       <c r="B4" s="1">
         <v>0.33200000000000002</v>
       </c>
-      <c r="C4" s="1">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>64000000</v>
+      </c>
+      <c r="D4" s="1">
         <v>4502</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>1000</v>
       </c>
       <c r="B5" s="1">
         <v>6.2560000000000002</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>1000000000</v>
+      </c>
+      <c r="D5" s="1">
         <v>10372</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>2000</v>
       </c>
       <c r="B6" s="1">
         <v>59.741999999999997</v>
       </c>
-      <c r="C6" s="1">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>8000000000</v>
+      </c>
+      <c r="D6" s="1">
         <v>62717</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>4000</v>
       </c>
       <c r="B7" s="1">
         <v>523.635986</v>
       </c>
-      <c r="C7" s="1">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>64000000000</v>
+      </c>
+      <c r="D7" s="1">
         <v>526406</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>10000</v>
       </c>
       <c r="B8" s="1">
         <v>8238.2197269999997</v>
       </c>
-      <c r="C8" s="1">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>1000000000000</v>
+      </c>
+      <c r="D8" s="1">
         <v>8241899</v>
       </c>
     </row>

--- a/lab2/tablo time.xlsx
+++ b/lab2/tablo time.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\n\algollabs\lab2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8099BB6A-4CE0-43AF-9D81-7432CED34969}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEC821D1-F1E2-41E1-929F-5788B01B8713}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2300,16 +2300,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>15240</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>381000</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>320040</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>64770</xdr:rowOff>
+      <xdr:rowOff>41910</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
